--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5236">
   <si>
     <t>translation_group</t>
   </si>
@@ -15679,12 +15679,6 @@
   </si>
   <si>
     <t xml:space="preserve"> bildirimler</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16071,17 +16065,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54728,18 +54722,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5220</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5221</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54749,10 +54735,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
       <c r="D2763" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54763,10 +54749,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
       <c r="D2764" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54777,10 +54763,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5226</v>
+        <v>5224</v>
       </c>
       <c r="D2765" t="s">
-        <v>5227</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54791,10 +54777,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
       <c r="D2766" t="s">
-        <v>5229</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54805,10 +54791,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5230</v>
+        <v>5228</v>
       </c>
       <c r="D2767" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54819,10 +54805,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5232</v>
+        <v>5230</v>
       </c>
       <c r="D2768" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54833,10 +54819,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5234</v>
+        <v>5232</v>
       </c>
       <c r="D2769" t="s">
-        <v>5235</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54875,11 +54861,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5236</v>
+        <v>5234</v>
       </c>
       <c r="D2772" t="s">
-        <v>5237</v>
-      </c>
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5926">
   <si>
     <t>translation_group</t>
   </si>
@@ -293,7 +293,7 @@
     <t>Section 44</t>
   </si>
   <si>
-    <t>44 bölüm</t>
+    <t>Bölüm 44</t>
   </si>
   <si>
     <t>Agree before form submission</t>
@@ -305,7 +305,7 @@
     <t>Choose country</t>
   </si>
   <si>
-    <t>Ülke seç</t>
+    <t>Ülke seçin</t>
   </si>
   <si>
     <t>New</t>
@@ -10187,7 +10187,7 @@
     <t>Seo Ayarları</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Web sitenizi arama motorlarında bulurken maksimum sonuç için alanları doldurun.</t>
@@ -17194,6 +17194,619 @@
   </si>
   <si>
     <t>Posta sağlayıcıları</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Microweber'a hoş geldiniz</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Web sitenizi, çevrimiçi mağazanızı veya blogunuzu oluşturmak için Microweber'ı kullanın.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>İçerik oluşturun ve düzenleyin, çevrimiçi satış yapın, siparişleri ve müşterileri yönetin.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Terk Edilmiş Sepetler</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Bu şablonu kullanıyorsunuz.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Değişiklik yalnızca mevcut sayfayı etkileyecektir.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Birden çok şablona izin ver</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Birden fazla şablona izin verirseniz, yeni bir sayfa oluşturduğunuzda farklı şablonlar kullanabilirsiniz.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Sistem e-posta web sitesi ayarları</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Yeni kayıt, şifre sıfırlama ve diğer sistem işlevleriyle ilgili mesajları iletin.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Gönderen  E-posta Adresi</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Website ismi</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Genel e-posta sağlayıcı ayarları</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>E-posta sağlayıcınızı ayarlayın.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Genel e-posta sağlayıcısı, web sitesi ile ilgili tüm mesajları iletecektir. Sistem mesajları ve iletişim formu mesajları dahil.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Web Sitesi Logosu</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Web siteniz için bir logo seçin.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Logo yükle</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Web Sitesi Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Varsayılan dili değiştirme ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Önbelleği temizle ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Çoklu Dil Modülünü Kurun</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Kullanıcılar Mailinator, MailDrop, Guerrilla ... gibi geçici e-postalarla kayıt olabilir.</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Kayıt kullanıcıları sizden otomatik olarak otomatik bir e-posta alabilir. Ayarlara bakın ve mesajlarınızı gönderin.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Yeni kullanıcı kaydıyla ilgili olarak yönetici kullanıcılara e-posta gönderin</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Yöneticilerin yeni kullanıcı kaydedildiğinde bir e-posta almasını ister misiniz?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber, ücretsiz açık kaynaklı sürükle ve bırak web sitesi oluşturucu ve CMS'dir. MIT lisansı altındadır ve Laravel PHP framework kullanıyoruz</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Bir Kaydırıcı</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Adrese gönderim</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Adresten teslim alma</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-posta Entegrasyonları</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Sistem e-postanız ve smtp kurulumunuz yok.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Sistem ayarlarınızı buradan yapın.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Küresel iletişim formu ayarları</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>E-posta gönderme seçenekleri</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Global gönderen</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Özel proksi ayarı kullan</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Genel iletişim formları için özel gönderen ayarlarını kullanın.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Varsayılan olarak web sitesi sistem e-posta ayarlarını kullanacağız.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Sistem e-posta ayarlarını buradan değiştirebilirsiniz.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Global Alıcılar</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>İletişim formu verilerini gönderildiğinde global alıcılara gönderin</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>E-posta adreslerine</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Koma ile ayrılmış alıcıların e-posta adresi.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>PHP SOAP uzantısını etkinleştirmek için barındırma sağlayıcınızla iletişime geçin.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementler</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 ay önce</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Logoyu kaldır</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Site simgesini kaldır</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Özel</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Ürünler V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Zaman çizelgesi</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Beyaz etiket WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Görünen referansların sayısı</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Modül şablonu değişti</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>İçerik sürümleri</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Önbelleği Temizle</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Varsayılan düzenler ve öğeler</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Ok Listesi</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Kontrol Listesi</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Arka Plan Metni</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Metinli Başlık</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Metinli Simge</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>İki Metin Sütunu</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Simge ve başlık içeren iki metin sütunu</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Başlık ve Metin ile Resim</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Resim ve Başlıklı Metin</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Yorumları etkinleştirin</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha ayarları</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captcha tercihlerinizi şuradan ayarlayın: </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Özel alanları kullanarak form alanlarını ekleyin / düzenleyin</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Mevcut iletişim formu ayarları</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>İletişim formu adı</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Bu iletişim formunun adı nedir?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Alıcılar</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Gönderildiğinde iletişim formu verilerini özel alıcılara gönderin</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Mevcut iletişim formu için özel alıcı ayarlarını kullanın.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Varsayılan olarak iletişim formu global ayarlarını kullanacağız.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>İletişim formu genel ayarlarını buradan değiştirebilirsiniz.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Kullanıcıya otomatik yanıt mesajı</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Kullanıcıya otomatik yanıt mesajını etkinleştir</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Kullanıcıların "Abonelikten sonra teşekkür e-postaları" almasına izin verin.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Otomatik yanıt konusu</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Otomatik yanıt mesajı</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Kullanıcıya geri gönderilen otomatik yanıt e-postası</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Özel göndereni otomatik yanıtla</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Mevcut iletişim formu için özel gönderen ayarlarını kullanın.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>E-posta adresinden otomatik yanıt</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Addan otomatik yanıt</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>E-postaya otomatik yanıt yanıtı</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Kullanıcı otomatik yanıt mesajını aldığında, e-postayı yanıtlamak için yanıt verebilir.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>E-posta eklerini otomatik yanıtlama</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Og resimleri eklemek istiyorsanız, bunları 'Medya ekle'den galeriye yüklemelisiniz.</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Henüz gönderiniz yok</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Hemen ilk yayınınızı oluşturun.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Gönderi Oluşturun</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                    satan ürün açıklamaları nasıl yazılır? Mağazanızı başarılı kılmak için yapabileceğiniz en iyi şeylerden biri, harika ürün açıklamaları yazmaya biraz zaman ayırmaktır. Potansiyel müşterileri satın almaya ikna edecek ayrıntılı ancak kısa bilgiler sağlamak istiyorsunuz.
+                                                    Bir tüketici gibi düşünün
+                                                    Bir tüketici olarak bilmek isteyeceğiniz şeyleri düşünün ve ardından bu özellikleri açıklamanıza ekleyin. Giysiler için: malzeme ve uyum. Yemek için: malzemeler ve nasıl hazırlandığı.
+                                                   özelliği listelerken madde işaretleri arkadaşlarınızdır -
+                                                            her birini 5-8 kelime ile sınırlandırmaya çalışın.</t>
   </si>
 </sst>
 </file>
@@ -17532,7 +18145,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67840,6 +68453,1757 @@
         <v>5724</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6221">
   <si>
     <t>translation_group</t>
   </si>
@@ -17807,6 +17807,891 @@
                                                     Bir tüketici olarak bilmek isteyeceğiniz şeyleri düşünün ve ardından bu özellikleri açıklamanıza ekleyin. Giysiler için: malzeme ve uyum. Yemek için: malzemeler ve nasıl hazırlandığı.
                                                    özelliği listelerken madde işaretleri arkadaşlarınızdır -
                                                             her birini 5-8 kelime ile sınırlandırmaya çalışın.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>yönetici dili</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>sınır</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Kod Düzenleyici</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>başlıklar</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Başlıklar 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Başlıklar 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Başlıklar 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Başlıklar 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Başlıklar 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Başlıklar 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Başlıklar 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Başlıklar 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>Metin bloğu</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Metin bloğu 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Metin bloğu 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Metin bloğu 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Metin bloğu 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Metin bloğu 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Metin bloğu 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Metin bloğu 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Metin bloğu 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Metin bloğu 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Metin bloğu 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Metin bloğu 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Metin bloğu 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Metin bloğu 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Metin bloğu 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Metin bloğu 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>özellikleri</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Özellikler 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Özellikler 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Özellikler 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Özellikler 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>ızgaralar</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menü - cilt-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menü - cilt-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menü - cilt-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menü - cilt-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menü - cilt-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>altbilgiler</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Altbilgiler 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Altbilgiler 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Altbilgiler 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Altbilgiler 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>diğer</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>fiyatlandırma</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>fiyatlandırma 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Varsayılan düzenler</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Burada İçerik Yok</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Özel alanlar kaydedilir</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Mevcut alanlar</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Aşağıdaki mevcut alanlarınızdan seçim yapın</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeni alanlar ekle</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Aşağıdaki listeden yeni özel alan ekleyin</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Alanlarınız</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Eklediğiniz özel alanların listesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dikey olarak tekrarla </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Font ailesi</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Kaplama</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Karışım modu</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>konteyner</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Konteyner tipi</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>animasyonlar</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Stiller yeniden yükleniyor</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Bağlantılar</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Önizleme paketi</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Kullanmak</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Akım</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>yeniden sırala</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>sistem</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Tarayıcı Yönlendirme</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Entegrasyon</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Bağımsız Güncelleyici</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Bu paketi yüklemek için lisans anahtarına ihtiyacınız var</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Bu paket premiumdur ve yüklemek için bir lisans anahtarınız olmalıdır</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Lisans anahtarına ihtiyacınız var</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Lisans etkinleştirildi</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Sayfa yeniden yükleniyor</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Lisans etkinleştirilmedi</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>URL'si</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Sistem güncellemeleri</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Sistem güncellemelerini kontrol edin</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Listeye geri dön</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategorinin bir adı olmalıdır</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Kategori gizli mi?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Bunu EVET olarak ayarlarsanız, bu kategori web sitesinden gizlenecektir.</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>söz</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Sepetiniz boş.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Sonuçlar bulundu</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Seçim alanından Yüzde'yi seçerseniz, ürünün Fiyat ve Teklif fiyatından otomatik olarak hesaplanır.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.gerekli</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>değerler.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Çıkışa doğru devam et</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>gösteriliyor</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>ile ilgili</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>Sonuçlar)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sayfa Başlığı - Sağ İçerik Haritası</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Sayfa Başlığı - Sol Ekmek Kırıntısı</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Kullanım Şartları</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Teslimat ve iade</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>1 hakkında</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Yaklaşık 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Yaklaşık 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>ev1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>ev 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Şablonunuzu değiştirmek için şablonu uygula düğmesine tıklamanız gerekir.</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Kriterlere göre ara</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Başlangıç tarihi</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Siparişleri tarihten itibaren ayarla</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Siparişleri bugüne kadar ayarlayın</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>sipariş miktarı</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Minimum tutarla siparişi göster</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Siparişi maksimum tutarla göster</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Ürünlere göre ara...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Ürünlere göre ara</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Ödeme Durumu</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Telefon, isim, e-posta vb. ile ücretsiz arama...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Bu kriteri gönderin</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Filtreyi sıfırla</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Tümünü dışa aktar</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Sıralamayı seçin</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Sipariş tarihi</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Yeni &gt; Eski]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Eski &gt; Yeni]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Yüksek &gt; Düşük]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Düşük &gt; Yüksek]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>sipariş tamamlandı</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>veritabanınızda çoklu dil modülünden çeviriler bulundu.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Uyarı! Varsayılan dili değiştirmek sitenizdeki çevirileri bozabilir.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Devam etmek istediğinizden emin misiniz?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Uyarı! Değişen varsayılan dil sitenizi bozabilir.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Nakliye ayrıntıları</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>sipariş henüz tamamlanmadı</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Şu saatte oluşturuldu:</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Şu saatte güncellendi:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hızlı Görünüm </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Dil değerlerini değiştir</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Çeviriler içe aktarılıyor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çeviriler veritabanında bulunamadı. Çevirileri içe aktarmak istiyor musunuz? </t>
   </si>
 </sst>
 </file>
@@ -17830,10 +18715,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17844,7 +18726,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18145,7 +19027,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70207,8 +71089,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6103</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6113</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6113</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>902</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6198</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6199</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6200</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6202</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6206</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6207</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6208</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6218</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70220,5 +73736,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/tr_TR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6036">
   <si>
     <t>translation_group</t>
   </si>
@@ -17280,7 +17280,7 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>E-posta sağlayıcınızı ayarlayın.</t>
+    <t>E-posta sağlayıcınızı kurun.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
@@ -17292,7 +17292,7 @@
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Web Sitesi Logosu</t>
+    <t>Web sitesi logosu</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17304,25 +17304,25 @@
     <t>Upload logo</t>
   </si>
   <si>
-    <t>Logo yükle</t>
+    <t>logo yükle</t>
   </si>
   <si>
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Web Sitesi Favicon</t>
+    <t>Web sitesi Favicon</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Varsayılan dili değiştirme ..</t>
+    <t>Varsayılan dil değiştiriliyor..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Önbelleği temizle ..</t>
+    <t>Önbelleği temizle..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17334,43 +17334,43 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Kullanıcılar Mailinator, MailDrop, Guerrilla ... gibi geçici e-postalarla kayıt olabilir.</t>
+    <t>Kullanıcılar, Mailinator, MailDrop, Guerrilla...s gibi geçici e-postalarla kayıt olabilirler.</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Kayıt kullanıcıları sizden otomatik olarak otomatik bir e-posta alabilir. Ayarlara bakın ve mesajlarınızı gönderin.</t>
+    <t>Kayıtlı kullanıcılar sizden otomatik olarak bir e-posta alabilir. Ayarlara bakın ve mesajlarınızı gönderin.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Yeni kullanıcı kaydıyla ilgili olarak yönetici kullanıcılara e-posta gönderin</t>
+    <t>Yeni kullanıcı kaydında yönetici kullanıcılara e-posta gönder</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Yöneticilerin yeni kullanıcı kaydedildiğinde bir e-posta almasını ister misiniz?</t>
+    <t>Yeni kullanıcı kaydolduğunda yöneticilerin bir e-posta almasını istiyor musunuz?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber, ücretsiz açık kaynaklı sürükle ve bırak web sitesi oluşturucu ve CMS'dir. MIT lisansı altındadır ve Laravel PHP framework kullanıyoruz</t>
+    <t>Microweber, ücretsiz açık kaynaklı sürükle ve bırak web sitesi oluşturucu ve CMS'dir. MIT lisansı altındadır ve Laravel PHP çerçevesini kullanırız.</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Bir Kaydırıcı</t>
+    <t>Kaydırıcı</t>
   </si>
   <si>
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>Adrese gönderim</t>
+    <t>adrese kargo</t>
   </si>
   <si>
     <t>Pickup from address</t>
@@ -17391,7 +17391,7 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Sistem e-postanız ve smtp kurulumunuz yok.</t>
+    <t>Sistem e-posta ve smtp kurulumunuz yok.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -17403,7 +17403,7 @@
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Küresel iletişim formu ayarları</t>
+    <t>Genel iletişim formu ayarları</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17415,7 +17415,7 @@
     <t>Global sender</t>
   </si>
   <si>
-    <t>Global gönderen</t>
+    <t>küresel gönderen</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
@@ -17433,7 +17433,7 @@
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Varsayılan olarak web sitesi sistem e-posta ayarlarını kullanacağız.</t>
+    <t>Varsayılan olarak web sitesi sistemi e-posta ayarlarını kullanacağız.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17445,13 +17445,13 @@
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>Global Alıcılar</t>
+    <t>Küresel Alıcılar</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>İletişim formu verilerini gönderildiğinde global alıcılara gönderin</t>
+    <t>Gönderildiğinde iletişim formları verilerini küresel alıcılara gönder</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17463,7 +17463,7 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Koma ile ayrılmış alıcıların e-posta adresi.</t>
+    <t>Koma ile ayrılmış alıcıların e-posta adresleri.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17493,25 +17493,28 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Site simgesini kaldır</t>
+    <t>Favicon'u kaldır</t>
   </si>
   <si>
     <t>Custom</t>
   </si>
   <si>
-    <t>Özel</t>
+    <t>Gelenek</t>
   </si>
   <si>
     <t>bxSlider</t>
   </si>
   <si>
+    <t>bxkaydırıcı</t>
+  </si>
+  <si>
     <t>Schema.org</t>
   </si>
   <si>
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Ürünler V2</t>
+    <t>ÜrünlerV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17529,9 +17532,6 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>Görünen referansların sayısı</t>
-  </si>
-  <si>
     <t>Module template has changed</t>
   </si>
   <si>
@@ -17607,7 +17607,7 @@
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>Resim ve Başlıklı Metin</t>
+    <t>Resimli ve Başlıklı Metin</t>
   </si>
   <si>
     <t>Text with Image</t>
@@ -17616,31 +17616,31 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Yorumları etkinleştirin</t>
+    <t>Yorumları etkinleştir</t>
   </si>
   <si>
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Captcha ayarları</t>
+    <t>Güvenlik kodu ayarları</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Captcha tercihlerinizi şuradan ayarlayın: </t>
+    <t xml:space="preserve">Captcha tercihlerinizi şu adresten ayarlayın: </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>Özel alanları kullanarak form alanlarını ekleyin / düzenleyin</t>
+    <t>Özel alanları kullanarak formun alanlarını ekleyin / düzenleyin</t>
   </si>
   <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Mevcut iletişim formu ayarları</t>
+    <t>Geçerli iletişim formu ayarları</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17664,19 +17664,19 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Gönderildiğinde iletişim formu verilerini özel alıcılara gönderin</t>
+    <t>Gönderildiğinde iletişim formu verilerini özel alıcılara gönder</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Mevcut iletişim formu için özel alıcı ayarlarını kullanın.</t>
+    <t>Geçerli iletişim formu için özel alıcı ayarlarını kullanın.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Varsayılan olarak iletişim formu global ayarlarını kullanacağız.</t>
+    <t>Varsayılan olarak, iletişim formu genel ayarlarını kullanacağız.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17688,7 +17688,7 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Kullanıcıya otomatik yanıt mesajı</t>
+    <t>Kullanıcıya mesajı otomatik yanıtla</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
@@ -17700,13 +17700,13 @@
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Kullanıcıların "Abonelikten sonra teşekkür e-postaları" almasına izin verin.</t>
+    <t>Kullanıcıların "Abonelikten sonra teşekkür e-postaları" almasına izin ver.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Otomatik yanıt konusu</t>
+    <t>Konuyu otomatik yanıtla</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
@@ -17715,13 +17715,13 @@
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Otomatik yanıt mesajı</t>
+    <t>Mesajı otomatik yanıtla</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Kullanıcıya geri gönderilen otomatik yanıt e-postası</t>
+    <t>Kullanıcıya geri gönderilen e-postayı otomatik yanıtla</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
@@ -17733,7 +17733,7 @@
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Mevcut iletişim formu için özel gönderen ayarlarını kullanın.</t>
+    <t>Geçerli iletişim formu için özel gönderen ayarlarını kullanın.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17745,13 +17745,13 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Addan otomatik yanıt</t>
+    <t>İsimden otomatik yanıt</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>E-postaya otomatik yanıt yanıtı</t>
+    <t>E-postayı otomatik yanıtla</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
@@ -17763,31 +17763,31 @@
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>E-posta eklerini otomatik yanıtlama</t>
+    <t>E-posta eklerini otomatik yanıtla</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Og resimleri eklemek istiyorsanız, bunları 'Medya ekle'den galeriye yüklemelisiniz.</t>
+    <t>Og resimleri eklemek istiyorsanız, onları 'Medya ekle' bölümünden galeriye yüklemeniz gerekir.</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Henüz gönderiniz yok</t>
+    <t>Henüz herhangi bir yayınınız yok</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Hemen ilk yayınınızı oluşturun.</t>
+    <t>Hemen ilk gönderinizi oluşturun.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Gönderi Oluşturun</t>
+    <t>Gönderi Oluştur</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17802,11 +17802,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-                                                    satan ürün açıklamaları nasıl yazılır? Mağazanızı başarılı kılmak için yapabileceğiniz en iyi şeylerden biri, harika ürün açıklamaları yazmaya biraz zaman ayırmaktır. Potansiyel müşterileri satın almaya ikna edecek ayrıntılı ancak kısa bilgiler sağlamak istiyorsunuz.
+                                                    satan ürün açıklamaları nasıl yazılır Mağazanızın başarılı olması için yapabileceğiniz en iyi şeylerden biri, harika ürün açıklamaları yazmaya biraz zaman ayırmaktır. Potansiyel müşterileri satın almaya ikna edecek ayrıntılı ancak özlü bilgiler sağlamak istiyorsunuz.
                                                     Bir tüketici gibi düşünün
-                                                    Bir tüketici olarak bilmek isteyeceğiniz şeyleri düşünün ve ardından bu özellikleri açıklamanıza ekleyin. Giysiler için: malzeme ve uyum. Yemek için: malzemeler ve nasıl hazırlandığı.
-                                                   özelliği listelerken madde işaretleri arkadaşlarınızdır -
-                                                            her birini 5-8 kelime ile sınırlandırmaya çalışın.</t>
+                                                    Bir tüketici olarak ne bilmek isteyeceğinizi düşünün ve ardından bu özellikleri açıklamanıza ekleyin. Giysiler için: malzemeler ve uyum. Yemek için: malzemeler ve nasıl hazırlandığı.
+                                                   özelliği listelerken madde işaretleri arkadaşlarınızdır — her birini 5-8 kelimeyle
+                                                            sınırlamaya çalışın.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17815,346 +17815,280 @@
     <t>yönetici dili</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Gönderi ekle</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>alt sayfa ekle</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategori silindi</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>içerik silindi</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Arama kategorileri</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>içerik oluştur</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kart</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Hiç</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Kimlik Açıklama</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>Kimlik Artan</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>sınır</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Silmek istediğinizden emin misiniz?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>İçinde hiç ürününüz yok</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>geri dön</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategoriler</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Özel alanlar kaydedildi</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Mevcut alanlar</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Aşağıdaki mevcut alanlarınızdan seçim yapın</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeni alanlar ekle</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Aşağıdaki listeden yeni özel alan ekleyin</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Alanlarınız</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Eklediğiniz özel alanların listesi</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stoklamak</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>sistem</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Tarayıcı Yönlendirmesi</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Entegrasyon</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Dışa Aktarma Aracını İçe Aktar</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Bağımsız Güncelleyici</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Paketi önizleyin</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Kullanmak</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Akım</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>İfade etmek</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Birinci sınıf</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Tıkla ve Topla</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>video arka planı</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Çoklu Dil</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Birden çok dili kullanmak için Çoklu dil modülünü etkinleştirebilirsiniz.</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Çoklu dil modu</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>İçeriğiniz için birden fazla dile sahip olmak üzere çoklu dil modunu etkinleştirin.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Çeviriler içe aktarılır</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çeviriler veritabanında bulunamadı. Çevirileri içe aktarmak istiyor musunuz? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Sepetiniz boş.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Kod Düzenleyici</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>başlıklar</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Başlıklar 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Başlıklar 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Başlıklar 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Başlıklar 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Başlıklar 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Başlıklar 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Başlıklar 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Başlıklar 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>Metin bloğu</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Metin bloğu 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Metin bloğu 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Metin bloğu 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Metin bloğu 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Metin bloğu 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Metin bloğu 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Metin bloğu 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Metin bloğu 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Metin bloğu 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Metin bloğu 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Metin bloğu 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Metin bloğu 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Metin bloğu 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Metin bloğu 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Metin bloğu 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>özellikleri</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Özellikler 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Özellikler 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Özellikler 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Özellikler 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>ızgaralar</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menü - cilt-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menü - cilt-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menü - cilt-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menü - cilt-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menü - cilt-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>altbilgiler</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Altbilgiler 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Altbilgiler 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Altbilgiler 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Altbilgiler 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>diğer</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>fiyatlandırma</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>fiyatlandırma 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
-    <t>Varsayılan düzenler</t>
-  </si>
-  <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Burada İçerik Yok</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Özel alanlar kaydedilir</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Mevcut alanlar</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Aşağıdaki mevcut alanlarınızdan seçim yapın</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeni alanlar ekle</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Aşağıdaki listeden yeni özel alan ekleyin</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Alanlarınız</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Eklediğiniz özel alanların listesi</t>
+    <t>varsayılan düzenler</t>
+  </si>
+  <si>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Yeni ithalat</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18184,7 +18118,7 @@
     <t>Container</t>
   </si>
   <si>
-    <t>konteyner</t>
+    <t>Konteyner</t>
   </si>
   <si>
     <t>Container type</t>
@@ -18202,496 +18136,7 @@
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>Stiller yeniden yükleniyor</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Bağlantılar</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Önizleme paketi</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Kullanmak</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Akım</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>yeniden sırala</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>sistem</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Tarayıcı Yönlendirme</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Entegrasyon</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Bağımsız Güncelleyici</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Bu paketi yüklemek için lisans anahtarına ihtiyacınız var</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Bu paket premiumdur ve yüklemek için bir lisans anahtarınız olmalıdır</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Lisans anahtarına ihtiyacınız var</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Lisans etkinleştirildi</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Sayfa yeniden yükleniyor</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Lisans etkinleştirilmedi</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>URL'si</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Sistem güncellemeleri</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Sistem güncellemelerini kontrol edin</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Listeye geri dön</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategorinin bir adı olmalıdır</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Kategori gizli mi?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Bunu EVET olarak ayarlarsanız, bu kategori web sitesinden gizlenecektir.</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>söz</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Sepetiniz boş.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Sonuçlar bulundu</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Seçim alanından Yüzde'yi seçerseniz, ürünün Fiyat ve Teklif fiyatından otomatik olarak hesaplanır.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.gerekli</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>değerler.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Çıkışa doğru devam et</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>gösteriliyor</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>ile ilgili</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>Sonuçlar)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sayfa Başlığı - Sağ İçerik Haritası</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Sayfa Başlığı - Sol Ekmek Kırıntısı</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Kullanım Şartları</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Teslimat ve iade</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>1 hakkında</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Yaklaşık 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Yaklaşık 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>ev1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>ev 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Şablonunuzu değiştirmek için şablonu uygula düğmesine tıklamanız gerekir.</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Kriterlere göre ara</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Başlangıç tarihi</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Siparişleri tarihten itibaren ayarla</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Siparişleri bugüne kadar ayarlayın</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>sipariş miktarı</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Minimum tutarla siparişi göster</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Siparişi maksimum tutarla göster</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Ürünlere göre ara...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Ürünlere göre ara</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Ödeme Durumu</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Telefon, isim, e-posta vb. ile ücretsiz arama...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Bu kriteri gönderin</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Filtreyi sıfırla</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Tümünü dışa aktar</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Sıralamayı seçin</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Sipariş tarihi</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Yeni &gt; Eski]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Eski &gt; Yeni]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Yüksek &gt; Düşük]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Düşük &gt; Yüksek]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>sipariş tamamlandı</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>veritabanınızda çoklu dil modülünden çeviriler bulundu.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Uyarı! Varsayılan dili değiştirmek sitenizdeki çevirileri bozabilir.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Devam etmek istediğinizden emin misiniz?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Uyarı! Değişen varsayılan dil sitenizi bozabilir.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Nakliye ayrıntıları</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>sipariş henüz tamamlanmadı</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Şu saatte oluşturuldu:</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Şu saatte güncellendi:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hızlı Görünüm </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Dil değerlerini değiştir</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Çeviriler içe aktarılıyor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çeviriler veritabanında bulunamadı. Çevirileri içe aktarmak istiyor musunuz? </t>
+    <t>Stilleri yeniden yükleme</t>
   </si>
 </sst>
 </file>
@@ -19027,7 +18472,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70233,7 +69678,7 @@
         <v>5827</v>
       </c>
       <c r="D3012" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70247,10 +69692,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="D3013" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70264,10 +69709,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="D3014" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70281,10 +69726,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D3015" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70298,10 +69743,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="D3016" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70315,10 +69760,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="D3017" t="s">
-        <v>5836</v>
+        <v>3324</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -71151,7 +70596,7 @@
         <v>5932</v>
       </c>
       <c r="D3066" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71165,10 +70610,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5933</v>
+        <v>5934</v>
       </c>
       <c r="D3067" t="s">
-        <v>5934</v>
+        <v>5935</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71182,10 +70627,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5935</v>
+        <v>5936</v>
       </c>
       <c r="D3068" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71199,10 +70644,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5937</v>
+        <v>5938</v>
       </c>
       <c r="D3069" t="s">
-        <v>5938</v>
+        <v>5939</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71216,10 +70661,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="D3070" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71233,10 +70678,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="D3071" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71250,10 +70695,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="D3072" t="s">
-        <v>5944</v>
+        <v>5945</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71267,10 +70712,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="D3073" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71284,10 +70729,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="D3074" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71301,10 +70746,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="D3075" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71318,10 +70763,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
       <c r="D3076" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71335,10 +70780,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="D3077" t="s">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71352,10 +70797,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5955</v>
+        <v>5956</v>
       </c>
       <c r="D3078" t="s">
-        <v>5956</v>
+        <v>5957</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71369,10 +70814,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5957</v>
+        <v>5958</v>
       </c>
       <c r="D3079" t="s">
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71386,10 +70831,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="D3080" t="s">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71403,10 +70848,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="D3081" t="s">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71420,10 +70865,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5963</v>
+        <v>5964</v>
       </c>
       <c r="D3082" t="s">
-        <v>5964</v>
+        <v>5965</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71437,10 +70882,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5965</v>
+        <v>5966</v>
       </c>
       <c r="D3083" t="s">
-        <v>5966</v>
+        <v>5967</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71454,10 +70899,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5967</v>
+        <v>5968</v>
       </c>
       <c r="D3084" t="s">
-        <v>5968</v>
+        <v>5969</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71471,10 +70916,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5969</v>
+        <v>5970</v>
       </c>
       <c r="D3085" t="s">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71488,10 +70933,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="D3086" t="s">
-        <v>5972</v>
+        <v>5973</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71505,10 +70950,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5973</v>
+        <v>5974</v>
       </c>
       <c r="D3087" t="s">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71522,7 +70967,7 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5975</v>
+        <v>5976</v>
       </c>
       <c r="D3088" t="s">
         <v>5976</v>
@@ -71627,7 +71072,7 @@
         <v>5987</v>
       </c>
       <c r="D3094" t="s">
-        <v>5988</v>
+        <v>5987</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71641,10 +71086,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3095" t="s">
         <v>5989</v>
-      </c>
-      <c r="D3095" t="s">
-        <v>5990</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71658,10 +71103,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3096" t="s">
         <v>5991</v>
-      </c>
-      <c r="D3096" t="s">
-        <v>5992</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71675,10 +71120,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3097" t="s">
         <v>5993</v>
-      </c>
-      <c r="D3097" t="s">
-        <v>5994</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71692,10 +71137,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3098" t="s">
         <v>5995</v>
-      </c>
-      <c r="D3098" t="s">
-        <v>2214</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71878,11 +71323,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6017</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71895,11 +71340,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6017</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71916,7 +71361,7 @@
         <v>6018</v>
       </c>
       <c r="D3111" t="s">
-        <v>6018</v>
+        <v>6019</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71930,10 +71375,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6019</v>
+        <v>6020</v>
       </c>
       <c r="D3112" t="s">
-        <v>6019</v>
+        <v>6021</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71947,10 +71392,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6020</v>
+        <v>6022</v>
       </c>
       <c r="D3113" t="s">
-        <v>6021</v>
+        <v>6023</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71964,10 +71409,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6022</v>
+        <v>6024</v>
       </c>
       <c r="D3114" t="s">
-        <v>6023</v>
+        <v>6025</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71981,10 +71426,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="D3115" t="s">
-        <v>6025</v>
+        <v>6027</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71998,10 +71443,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6026</v>
+        <v>6028</v>
       </c>
       <c r="D3116" t="s">
-        <v>6027</v>
+        <v>6029</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72015,10 +71460,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6028</v>
+        <v>6030</v>
       </c>
       <c r="D3117" t="s">
-        <v>6029</v>
+        <v>6031</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72032,10 +71477,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6030</v>
+        <v>6032</v>
       </c>
       <c r="D3118" t="s">
-        <v>6031</v>
+        <v>6033</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72049,1678 +71494,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6032</v>
+        <v>6034</v>
       </c>
       <c r="D3119" t="s">
-        <v>6033</v>
+        <v>6035</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6103</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5923</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6113</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6113</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>902</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6197</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6198</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6199</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6200</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6201</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6202</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6203</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6204</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6205</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4357</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6206</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6207</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6208</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6209</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6210</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6212</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6214</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6215</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6216</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6217</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6218</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6219</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6220</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
